--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 18 - Mash Tun 2/100RP270_S18_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 18 - Mash Tun 2/100RP270_S18_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 18 - Mash Tun 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DFF891-0C19-5D40-9F4D-B94129014C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97071A7C-BB63-0F45-A3DB-FBF2A8DEFAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="51200" windowHeight="21140" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="51200" windowHeight="21600" firstSheet="1" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="153">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -635,12 +635,24 @@
   <si>
     <t>68RP275.5822:902VCM</t>
   </si>
+  <si>
+    <t>025: Act HCl material</t>
+  </si>
+  <si>
+    <t>028: Act HCl dosing</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -704,8 +716,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,6 +776,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1025,6 +1056,9 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5450,14 +5484,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Function: Massafra -   | Bergamo - Sequence run time</v>
+        <v>-- Function: Massafra -  SeqRunTime | Bergamo - Sequence run time</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$3="NULL","",IF(ISBLANK('01 Function Comparison'!$K$3),"",'01 Function Comparison'!$K$3))</f>
-        <v/>
+        <v>SeqRunTime</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>14</v>
@@ -5507,7 +5541,7 @@
     <row r="6" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="str">
         <f>CONCATENATE(D6,"N'",F6,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'100RP291.1073741911SUPPLFX'</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="30"/>
@@ -5517,7 +5551,7 @@
       <c r="E6" s="36"/>
       <c r="F6" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$3="NULL","",IF(ISBLANK('01 Function Comparison'!$L$3),"",'01 Function Comparison'!$L$3))</f>
-        <v/>
+        <v>100RP291.1073741911SUPPLFX</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -11300,8 +11334,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11420,6 +11454,12 @@
       <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="J3" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>149</v>
+      </c>
       <c r="N3" s="11">
         <f>'00 Value Source'!H1</f>
         <v>5</v>
@@ -11462,6 +11502,12 @@
       <c r="I4" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="J4" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>150</v>
+      </c>
       <c r="N4" s="11" t="str">
         <f>'00 Value Source'!H2</f>
         <v>NULL</v>
@@ -11504,6 +11550,9 @@
       <c r="I5" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="K5" s="57" t="s">
+        <v>32</v>
+      </c>
       <c r="N5" s="11" t="str">
         <f>'00 Value Source'!H3</f>
         <v>NULL</v>
@@ -11546,6 +11595,9 @@
       <c r="I6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="K6" s="57" t="s">
+        <v>34</v>
+      </c>
       <c r="N6" s="11" t="str">
         <f>'00 Value Source'!H4</f>
         <v>NULL</v>
@@ -11588,6 +11640,9 @@
       <c r="I7" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="K7" s="57" t="s">
+        <v>36</v>
+      </c>
       <c r="N7" s="11" t="str">
         <f>'00 Value Source'!H5</f>
         <v>NULL</v>
@@ -11630,6 +11685,9 @@
       <c r="I8" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="K8" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="N8" s="11" t="str">
         <f>'00 Value Source'!H6</f>
         <v>NULL</v>
@@ -11672,6 +11730,9 @@
       <c r="I9" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K9" s="57" t="s">
+        <v>41</v>
+      </c>
       <c r="N9" s="11" t="str">
         <f>'00 Value Source'!H7</f>
         <v>NULL</v>
@@ -11714,6 +11775,9 @@
       <c r="I10" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K10" s="57" t="s">
+        <v>43</v>
+      </c>
       <c r="N10" s="11" t="str">
         <f>'00 Value Source'!H8</f>
         <v>NULL</v>
@@ -11756,6 +11820,9 @@
       <c r="I11" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="K11" s="57" t="s">
+        <v>45</v>
+      </c>
       <c r="N11" s="11" t="str">
         <f>'00 Value Source'!H9</f>
         <v>NULL</v>
@@ -11797,6 +11864,9 @@
       </c>
       <c r="I12" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>45</v>
       </c>
       <c r="N12" s="11" t="str">
         <f>'00 Value Source'!H10</f>
@@ -17251,7 +17321,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -23575,8 +23645,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23695,6 +23765,15 @@
       <c r="I3" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="N3" s="11">
         <f>'00 Function Source'!H1</f>
         <v>1</v>
@@ -30330,7 +30409,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -35665,14 +35744,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Value: Massafra -   | Bergamo - 005: Act HCl material</v>
+        <v>-- Value: Massafra -  025: Act HCl material | Bergamo - 005: Act HCl material</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$3="NULL","",IF(ISBLANK('01 Value Comparison'!$K$3),"",'01 Value Comparison'!$K$3))</f>
-        <v/>
+        <v>025: Act HCl material</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>14</v>
@@ -35738,14 +35817,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Value: Massafra -   | Bergamo - 008: Act HCl dosing</v>
+        <v>-- Value: Massafra -  028: Act HCl dosing | Bergamo - 008: Act HCl dosing</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$4="NULL","",IF(ISBLANK('01 Value Comparison'!$K$4),"",'01 Value Comparison'!$K$4))</f>
-        <v/>
+        <v>028: Act HCl dosing</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>
@@ -35811,14 +35890,14 @@
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Value: Massafra -   | Bergamo - 010: MES: Mean mashing T°C</v>
+        <v>-- Value: Massafra -  010: MES: Mean mashing T°C | Bergamo - 010: MES: Mean mashing T°C</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$5="NULL","",IF(ISBLANK('01 Value Comparison'!$K$5),"",'01 Value Comparison'!$K$5))</f>
-        <v/>
+        <v>010: MES: Mean mashing T°C</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>14</v>
@@ -35884,14 +35963,14 @@
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Value: Massafra -   | Bergamo - 014: MES: Volume Mash MT (malto)</v>
+        <v>-- Value: Massafra -  014: MES: Volume Mash MT (malto) | Bergamo - 014: MES: Volume Mash MT (malto)</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$6="NULL","",IF(ISBLANK('01 Value Comparison'!$K$6),"",'01 Value Comparison'!$K$6))</f>
-        <v/>
+        <v>014: MES: Volume Mash MT (malto)</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>14</v>
@@ -35957,14 +36036,14 @@
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v>-- Value: Massafra -   | Bergamo - 015: MES: Time filling</v>
+        <v>-- Value: Massafra -  015: MES: Time filling | Bergamo - 015: MES: Time filling</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$7="NULL","",IF(ISBLANK('01 Value Comparison'!$K$7),"",'01 Value Comparison'!$K$7))</f>
-        <v/>
+        <v>015: MES: Time filling</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>14</v>
@@ -36030,14 +36109,14 @@
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v>-- Value: Massafra -   | Bergamo - 020: MES: Man value - Gravity acc. at WC</v>
+        <v>-- Value: Massafra -  020: MES: Man value - Gravity acc. at WC | Bergamo - 020: MES: Man value - Gravity acc. at WC</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$8="NULL","",IF(ISBLANK('01 Value Comparison'!$K$8),"",'01 Value Comparison'!$K$8))</f>
-        <v/>
+        <v>020: MES: Man value - Gravity acc. at WC</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>14</v>
@@ -36103,14 +36182,14 @@
     <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="str">
         <f>CONCATENATE(B32,C32,D32,E32)</f>
-        <v>-- Value: Massafra -   | Bergamo - 023: MES UTIF Maize</v>
+        <v>-- Value: Massafra -  023: MES UTIF Maize | Bergamo - 023: MES UTIF Maize</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$9="NULL","",IF(ISBLANK('01 Value Comparison'!$K$9),"",'01 Value Comparison'!$K$9))</f>
-        <v/>
+        <v>023: MES UTIF Maize</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>14</v>
@@ -36176,14 +36255,14 @@
     <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="str">
         <f>CONCATENATE(B37,C37,D37,E37)</f>
-        <v>-- Value: Massafra -   | Bergamo - 045: MES: Time Grist Bin Rest</v>
+        <v>-- Value: Massafra -  045: MES: Time Grist Bin Rest | Bergamo - 045: MES: Time Grist Bin Rest</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$10="NULL","",IF(ISBLANK('01 Value Comparison'!$K$10),"",'01 Value Comparison'!$K$10))</f>
-        <v/>
+        <v>045: MES: Time Grist Bin Rest</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>14</v>
@@ -36249,14 +36328,14 @@
     <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="str">
         <f>CONCATENATE(B42,C42,D42,E42)</f>
-        <v>-- Value: Massafra -   | Bergamo - 060: Man. ph Mashing [ph]</v>
+        <v>-- Value: Massafra -  060: Man. ph Mashing [ph] | Bergamo - 060: Man. ph Mashing [ph]</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$11="NULL","",IF(ISBLANK('01 Value Comparison'!$K$11),"",'01 Value Comparison'!$K$11))</f>
-        <v/>
+        <v>060: Man. ph Mashing [ph]</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>14</v>
@@ -36322,14 +36401,14 @@
     <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="str">
         <f>CONCATENATE(B47,C47,D47,E47)</f>
-        <v>-- Value: Massafra -   | Bergamo - 061: Man. Confirm Saccarification</v>
+        <v>-- Value: Massafra -  060: Man. ph Mashing [ph] | Bergamo - 061: Man. Confirm Saccarification</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$12="NULL","",IF(ISBLANK('01 Value Comparison'!$K$12),"",'01 Value Comparison'!$K$12))</f>
-        <v/>
+        <v>060: Man. ph Mashing [ph]</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>14</v>

--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 18 - Mash Tun 2/100RP270_S18_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 18 - Mash Tun 2/100RP270_S18_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 18 - Mash Tun 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97071A7C-BB63-0F45-A3DB-FBF2A8DEFAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD961BC-6B90-B541-9853-AB13A11C1FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="51200" windowHeight="21600" firstSheet="1" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="840" yWindow="2840" windowWidth="29340" windowHeight="19080" firstSheet="1" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="158">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -647,12 +647,27 @@
   <si>
     <t>28</t>
   </si>
+  <si>
+    <t>100RP291.3025:603VCM</t>
+  </si>
+  <si>
+    <t>100RP291.3025:1431VCM</t>
+  </si>
+  <si>
+    <t>100RP291.3027:1431VCM</t>
+  </si>
+  <si>
+    <t>100RP291.3029:603VCM</t>
+  </si>
+  <si>
+    <t>100RP291.3029:1431VCM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -712,13 +727,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1020,6 +1028,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1056,9 +1066,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5557,14 +5565,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Function: Massafra -   | Bergamo - 04: Dosing time WWT</v>
+        <v>-- Function: Massafra -  04: Dosing time WWT | Bergamo - 04: Dosing time WWT</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$4="NULL","",IF(ISBLANK('01 Function Comparison'!$K$4),"",'01 Function Comparison'!$K$4))</f>
-        <v/>
+        <v>04: Dosing time WWT</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>
@@ -5630,14 +5638,14 @@
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Function: Massafra -   | Bergamo - 11: MES: Time from mashing till Rest/Heat</v>
+        <v>-- Function: Massafra -  11: MES: Time from mashing till Rest/Heat | Bergamo - 11: MES: Time from mashing till Rest/Heat</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$5="NULL","",IF(ISBLANK('01 Function Comparison'!$K$5),"",'01 Function Comparison'!$K$5))</f>
-        <v/>
+        <v>11: MES: Time from mashing till Rest/Heat</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>14</v>
@@ -7942,14 +7950,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Mashing in ( RunTime )</v>
+        <v>-- Operation: Massafra - 181 - Mashing in ( RunTime ) | Bergamo - Mashing in ( RunTime )</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$3="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$3),"",CONCATENATE('01 Operation Comparison'!$N$3," ( ",'01 Operation Comparison'!$O$3," )")))</f>
-        <v/>
+        <v>181 - Mashing in ( RunTime )</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>14</v>
@@ -7999,7 +8007,7 @@
     <row r="6" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="str">
         <f>CONCATENATE(D6,"N'",F6,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'100RP291.3022:601RUNT'</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="30"/>
@@ -8009,20 +8017,20 @@
       <c r="E6" s="36"/>
       <c r="F6" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$3="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$3),"",'01 Operation Comparison'!$P$3))</f>
-        <v/>
+        <v>100RP291.3022:601RUNT</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Mashing in ( Mash Water Amount )</v>
+        <v>-- Operation: Massafra - 181 - Mashing in ( Mash Water Amount ) | Bergamo - Mashing in ( Mash Water Amount )</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$4="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$4),"",CONCATENATE('01 Operation Comparison'!$N$4," ( ",'01 Operation Comparison'!$O$4," )")))</f>
-        <v/>
+        <v>181 - Mashing in ( Mash Water Amount )</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>
@@ -8088,14 +8096,14 @@
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Rest ( Rest time )</v>
+        <v>-- Operation: Massafra - 184 - Rest ( Rest time ) | Bergamo - Rest ( Rest time )</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$5="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$5),"",CONCATENATE('01 Operation Comparison'!$N$5," ( ",'01 Operation Comparison'!$O$5," )")))</f>
-        <v/>
+        <v>184 - Rest ( Rest time )</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>14</v>
@@ -8145,7 +8153,7 @@
     <row r="16" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="str">
         <f>CONCATENATE(D16,"N'",F16,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'100RP291.3025:603VCM'</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="30"/>
@@ -8155,20 +8163,20 @@
       <c r="E16" s="36"/>
       <c r="F16" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$5="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$5),"",'01 Operation Comparison'!$P$5))</f>
-        <v/>
+        <v>100RP291.3025:603VCM</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Rest ( Temp Mash Tun )</v>
+        <v>-- Operation: Massafra - 184 - Rest ( Temp Mash tun ) | Bergamo - Rest ( Temp Mash Tun )</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$6="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$6),"",CONCATENATE('01 Operation Comparison'!$N$6," ( ",'01 Operation Comparison'!$O$6," )")))</f>
-        <v/>
+        <v>184 - Rest ( Temp Mash tun )</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>14</v>
@@ -8218,7 +8226,7 @@
     <row r="21" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="str">
         <f>CONCATENATE(D21,"N'",F21,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'100RP291.3025:1431VCM'</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="30"/>
@@ -8228,20 +8236,20 @@
       <c r="E21" s="36"/>
       <c r="F21" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$6="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$6),"",'01 Operation Comparison'!$P$6))</f>
-        <v/>
+        <v>100RP291.3025:1431VCM</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Heat up ( Heating time )</v>
+        <v>-- Operation: Massafra - 185 - Heat Up ( Heating time ) | Bergamo - Heat up ( Heating time )</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$7="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$7),"",CONCATENATE('01 Operation Comparison'!$N$7," ( ",'01 Operation Comparison'!$O$7," )")))</f>
-        <v/>
+        <v>185 - Heat Up ( Heating time )</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>14</v>
@@ -8291,7 +8299,7 @@
     <row r="26" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="str">
         <f>CONCATENATE(D26,"N'",F26,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'100RP291.3026:603VCM'</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="30"/>
@@ -8301,20 +8309,20 @@
       <c r="E26" s="36"/>
       <c r="F26" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$7="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$7),"",'01 Operation Comparison'!$P$7))</f>
-        <v/>
+        <v>100RP291.3026:603VCM</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Rest ( Rest time )</v>
+        <v>-- Operation: Massafra - 184 - Rest ( Rest time ) | Bergamo - Rest ( Rest time )</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$8="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$8),"",CONCATENATE('01 Operation Comparison'!$N$8," ( ",'01 Operation Comparison'!$O$8," )")))</f>
-        <v/>
+        <v>184 - Rest ( Rest time )</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>14</v>
@@ -8364,7 +8372,7 @@
     <row r="31" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="str">
         <f>CONCATENATE(D31,"N'",F31,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'100RP291.3027:603VCM'</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="30"/>
@@ -8374,20 +8382,20 @@
       <c r="E31" s="36"/>
       <c r="F31" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$8="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$8),"",'01 Operation Comparison'!$P$8))</f>
-        <v/>
+        <v>100RP291.3027:603VCM</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="str">
         <f>CONCATENATE(B32,C32,D32,E32)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Rest ( Temp Mash Tun )</v>
+        <v>-- Operation: Massafra - 184 - Rest ( Temp Mash tun ) | Bergamo - Rest ( Temp Mash Tun )</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$9="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$9),"",CONCATENATE('01 Operation Comparison'!$N$9," ( ",'01 Operation Comparison'!$O$9," )")))</f>
-        <v/>
+        <v>184 - Rest ( Temp Mash tun )</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>14</v>
@@ -8437,7 +8445,7 @@
     <row r="36" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="str">
         <f>CONCATENATE(D36,"N'",F36,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'100RP291.3027:1431VCM'</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="30"/>
@@ -8447,20 +8455,20 @@
       <c r="E36" s="36"/>
       <c r="F36" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$9="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$9),"",'01 Operation Comparison'!$P$9))</f>
-        <v/>
+        <v>100RP291.3027:1431VCM</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="str">
         <f>CONCATENATE(B37,C37,D37,E37)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Heat up ( Heating time )</v>
+        <v>-- Operation: Massafra - 185 - Heat Up ( Heating time ) | Bergamo - Heat up ( Heating time )</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$10="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$10),"",CONCATENATE('01 Operation Comparison'!$N$10," ( ",'01 Operation Comparison'!$O$10," )")))</f>
-        <v/>
+        <v>185 - Heat Up ( Heating time )</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>14</v>
@@ -8510,7 +8518,7 @@
     <row r="41" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="str">
         <f>CONCATENATE(D41,"N'",F41,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'100RP291.3028:603VCM'</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="30"/>
@@ -8520,20 +8528,20 @@
       <c r="E41" s="36"/>
       <c r="F41" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$10="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$10),"",'01 Operation Comparison'!$P$10))</f>
-        <v/>
+        <v>100RP291.3028:603VCM</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="str">
         <f>CONCATENATE(B42,C42,D42,E42)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Rest ( Rest time )</v>
+        <v>-- Operation: Massafra - 184 - Rest ( Rest time ) | Bergamo - Rest ( Rest time )</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$11="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$11),"",CONCATENATE('01 Operation Comparison'!$N$11," ( ",'01 Operation Comparison'!$O$11," )")))</f>
-        <v/>
+        <v>184 - Rest ( Rest time )</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>14</v>
@@ -8583,7 +8591,7 @@
     <row r="46" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="str">
         <f>CONCATENATE(D46,"N'",F46,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'100RP291.3029:603VCM'</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="30"/>
@@ -8593,20 +8601,20 @@
       <c r="E46" s="36"/>
       <c r="F46" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$11="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$11),"",'01 Operation Comparison'!$P$11))</f>
-        <v/>
+        <v>100RP291.3029:603VCM</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="str">
         <f>CONCATENATE(B47,C47,D47,E47)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Rest ( Temp Mash Tun )</v>
+        <v>-- Operation: Massafra - 184 - Rest ( Temp Mash tun ) | Bergamo - Rest ( Temp Mash Tun )</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$12="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$12),"",CONCATENATE('01 Operation Comparison'!$N$12," ( ",'01 Operation Comparison'!$O$12," )")))</f>
-        <v/>
+        <v>184 - Rest ( Temp Mash tun )</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>14</v>
@@ -8656,7 +8664,7 @@
     <row r="51" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="str">
         <f>CONCATENATE(D51,"N'",F51,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'100RP291.3029:1431VCM'</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="30"/>
@@ -8666,7 +8674,7 @@
       <c r="E51" s="36"/>
       <c r="F51" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$12="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$12),"",'01 Operation Comparison'!$P$12))</f>
-        <v/>
+        <v>100RP291.3029:1431VCM</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -11334,8 +11342,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K12"/>
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11358,28 +11366,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="N1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -11454,10 +11462,10 @@
       <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="45" t="s">
         <v>149</v>
       </c>
       <c r="N3" s="11">
@@ -11502,10 +11510,10 @@
       <c r="I4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="45" t="s">
         <v>150</v>
       </c>
       <c r="N4" s="11" t="str">
@@ -11550,7 +11558,7 @@
       <c r="I5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="45" t="s">
         <v>32</v>
       </c>
       <c r="N5" s="11" t="str">
@@ -11595,7 +11603,7 @@
       <c r="I6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="45" t="s">
         <v>34</v>
       </c>
       <c r="N6" s="11" t="str">
@@ -11640,7 +11648,7 @@
       <c r="I7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="57" t="s">
+      <c r="K7" s="45" t="s">
         <v>36</v>
       </c>
       <c r="N7" s="11" t="str">
@@ -11685,7 +11693,7 @@
       <c r="I8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="45" t="s">
         <v>39</v>
       </c>
       <c r="N8" s="11" t="str">
@@ -11730,7 +11738,7 @@
       <c r="I9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="45" t="s">
         <v>41</v>
       </c>
       <c r="N9" s="11" t="str">
@@ -11775,7 +11783,7 @@
       <c r="I10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="45" t="s">
         <v>43</v>
       </c>
       <c r="N10" s="11" t="str">
@@ -11820,7 +11828,7 @@
       <c r="I11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="45" t="s">
         <v>45</v>
       </c>
       <c r="N11" s="11" t="str">
@@ -11865,8 +11873,8 @@
       <c r="I12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="58" t="s">
-        <v>45</v>
+      <c r="K12" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="N12" s="11" t="str">
         <f>'00 Value Source'!H10</f>
@@ -17345,28 +17353,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="N1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -23645,8 +23653,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L3"/>
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23669,28 +23677,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="N1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -23816,6 +23824,9 @@
       <c r="I4" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="K4" s="58" t="s">
+        <v>61</v>
+      </c>
       <c r="N4" s="11" t="str">
         <f>'00 Function Source'!H2</f>
         <v>NULL</v>
@@ -23857,6 +23868,9 @@
       </c>
       <c r="I5" s="4" t="s">
         <v>64</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>63</v>
       </c>
       <c r="N5" s="11" t="str">
         <f>'00 Function Source'!H3</f>
@@ -30409,8 +30423,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30437,32 +30451,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="H1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="H1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52"/>
-      <c r="R1" s="53" t="s">
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
+      <c r="R1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="55"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="57"/>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -30563,6 +30577,15 @@
       <c r="M3" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="N3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="R3" s="11" t="str">
         <f>'00 Operation Source'!C1</f>
         <v>181 - Mashing in</v>
@@ -30619,6 +30642,12 @@
       <c r="M4" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="N4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>70</v>
+      </c>
       <c r="R4" s="11" t="str">
         <f>'00 Operation Source'!C2</f>
         <v>NULL</v>
@@ -30675,6 +30704,15 @@
       <c r="M5" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="N5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="R5" s="11" t="str">
         <f>'00 Operation Source'!C3</f>
         <v>185 - Heat Up</v>
@@ -30731,6 +30769,15 @@
       <c r="M6" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="N6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="R6" s="11" t="str">
         <f>'00 Operation Source'!C4</f>
         <v>185 - Heat Up</v>
@@ -30787,6 +30834,15 @@
       <c r="M7" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="N7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="R7" s="11" t="str">
         <f>'00 Operation Source'!C5</f>
         <v>184 - Rest</v>
@@ -30843,6 +30899,15 @@
       <c r="M8" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="N8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="R8" s="11" t="str">
         <f>'00 Operation Source'!C6</f>
         <v>185 - Heat Up</v>
@@ -30899,6 +30964,15 @@
       <c r="M9" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="N9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="R9" s="11" t="str">
         <f>'00 Operation Source'!C7</f>
         <v>185 - Heat Up</v>
@@ -30955,6 +31029,15 @@
       <c r="M10" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="N10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="R10" s="11" t="str">
         <f>'00 Operation Source'!C8</f>
         <v>186 - Transfer MT II -&gt; MF</v>
@@ -31011,6 +31094,15 @@
       <c r="M11" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="N11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="R11" s="11" t="str">
         <f>'00 Operation Source'!C9</f>
         <v>NULL</v>
@@ -31066,6 +31158,15 @@
       </c>
       <c r="M12" s="4" t="s">
         <v>92</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="R12" s="11" t="str">
         <f>'00 Operation Source'!C10</f>
@@ -36401,14 +36502,14 @@
     <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="str">
         <f>CONCATENATE(B47,C47,D47,E47)</f>
-        <v>-- Value: Massafra -  060: Man. ph Mashing [ph] | Bergamo - 061: Man. Confirm Saccarification</v>
+        <v>-- Value: Massafra -  061: Man. Confirm Saccarification | Bergamo - 061: Man. Confirm Saccarification</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$12="NULL","",IF(ISBLANK('01 Value Comparison'!$K$12),"",'01 Value Comparison'!$K$12))</f>
-        <v>060: Man. ph Mashing [ph]</v>
+        <v>061: Man. Confirm Saccarification</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>14</v>
